--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,418 +814,418 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G495" t="b">
@@ -26185,57 +26185,57 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
+      <c r="F496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,418 +814,418 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -26161,81 +26161,81 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>45</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>13</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B496" s="2" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C496" s="2" t="inlineStr">
-        <is>
-          <t>video</t>
-        </is>
-      </c>
-      <c r="D496" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="F496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
